--- a/static/Planilla Tipo Inventario.xlsx
+++ b/static/Planilla Tipo Inventario.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>GDF-OI14-Queltehue-C35</t>
   </si>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>Salida</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>GDF-PV14-Lile-C10</t>
+  </si>
+  <si>
+    <t>Bodega</t>
+  </si>
+  <si>
+    <t>Bodega Central</t>
   </si>
 </sst>
 </file>
@@ -110,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -123,6 +135,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -420,181 +441,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="42.95" customHeight="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="42.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>35</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>33558</v>
+      </c>
+      <c r="F2">
+        <v>69900</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>40</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3">
+        <v>33558</v>
+      </c>
+      <c r="F3">
+        <v>69900</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>36</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4">
+        <v>33558</v>
+      </c>
+      <c r="F4">
+        <v>69900</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>38</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5">
+        <v>33558</v>
+      </c>
+      <c r="F5">
+        <v>69900</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>36</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
+        <v>33558</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="125.25" customHeight="1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1"/>
+      <c r="F6">
+        <v>69900</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>34510</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>69900</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
